--- a/docs/NAMA -NAMA OBAT DI TOKO OBAT RO TUA4.xlsx
+++ b/docs/NAMA -NAMA OBAT DI TOKO OBAT RO TUA4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29630"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\TOKO OBAT 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\APOTEKER\Aplikasi\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178D8F5D-1E0C-4734-A249-55C22F4E7019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A6A066-5845-4A14-A0CE-F6E0C3437656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAK A" sheetId="1" r:id="rId1"/>
@@ -2272,7 +2272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2341,7 +2341,6 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -12375,8 +12374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F079EA64-92FE-4945-B37A-B82E5F9413AC}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14116,7 +14115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32185B9-6617-410B-A22F-C7531B19729F}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -19922,7 +19921,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8720E848-AA9E-4069-BF62-7C6F15FE329F}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -20607,42 +20606,6 @@
         <v>46229</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
